--- a/static/excelfiles/book_manage.xlsx
+++ b/static/excelfiles/book_manage.xlsx
@@ -431,8 +431,8 @@
   </sheetPr>
   <dimension ref="A1:Q699"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,6 +542,9 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="10">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Midmarket</t>
@@ -43835,9 +43838,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -43872,36 +43875,36 @@
     </row>
     <row r="2" ht="13.8" customHeight="1" s="10">
       <c r="A2" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>The Catcher In The Rye</t>
+          <t>‘The Palace of Illusions’</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">J.D Salinger </t>
+          <t>Chitra Banerjee Divakaruni</t>
         </is>
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Fictional</t>
         </is>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="10">
       <c r="A3" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>The Lightning Thief</t>
+          <t>Shiva Trilogy</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Percy Jackson</t>
+          <t>Amish Tripathi</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
@@ -43912,176 +43915,176 @@
     </row>
     <row r="4" ht="13.8" customHeight="1" s="10">
       <c r="A4" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>‘The Palace of Illusions’</t>
+          <t>American Gods</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>Chitra Banerjee Divakaruni</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Fictional</t>
+          <t>Action</t>
         </is>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="10">
       <c r="A5" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Shiva Trilogy</t>
+          <t>The Once and Future King</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Amish Tripathi</t>
+          <t>T. H. White</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Fictional</t>
+          <t>Action</t>
         </is>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="10">
       <c r="A6" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>American Gods</t>
+          <t>Get a Life, Chloe Brown</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t xml:space="preserve">Talia Hibbert </t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Rom-Com</t>
         </is>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="10">
       <c r="A7" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>The Once and Future King</t>
+          <t>Gone Girl</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>T. H. White</t>
+          <t>Gillian Flynn</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Thriller</t>
         </is>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="10">
       <c r="A8" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>Get a Life, Chloe Brown</t>
+          <t>Those Bones Are Not My Child</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Talia Hibbert </t>
+          <t>Toni Cade Bambara</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Rom-Com</t>
+          <t>Thriller</t>
         </is>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="10">
       <c r="A9" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>Gone Girl</t>
+          <t>The Art of Computer Programming</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Gillian Flynn</t>
+          <t>Donald E Knuth</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Programing</t>
         </is>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="10">
       <c r="A10" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Those Bones Are Not My Child</t>
+          <t>Code Complete: A Practical Handbook of Software Construction</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>Toni Cade Bambara</t>
+          <t>Steve McConnell’s</t>
         </is>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Programing</t>
         </is>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="10">
       <c r="A11" s="6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>The Art of Computer Programming</t>
+          <t>The Ultimate Hitchhiker's Guide To The Galaxy</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>Donald E Knuth</t>
+          <t>Douglas Adams</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Programing</t>
+          <t>Comedy</t>
         </is>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="10">
       <c r="A12" s="6" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>Code Complete: A Practical Handbook of Software Construction</t>
+          <t>Python Programming</t>
         </is>
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Steve McConnell’s</t>
+          <t>Nirali Prakshan</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
@@ -44092,36 +44095,36 @@
     </row>
     <row r="13" ht="13.8" customHeight="1" s="10">
       <c r="A13" s="6" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>The Ultimate Hitchhiker's Guide To The Galaxy</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Douglas Adams</t>
+          <t>Dennis Ritchie</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>programing</t>
         </is>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="10">
       <c r="A14" s="6" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>Python Programming</t>
+          <t>icanpratikpawar</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>Nirali Prakshan</t>
+          <t>pratik</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
@@ -44130,26 +44133,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="10">
-      <c r="A15" t="n">
-        <v>50</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Python Fundamentals</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>pratik</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Programing</t>
-        </is>
-      </c>
-    </row>
+    <row r="15" ht="13.8" customHeight="1" s="10"/>
     <row r="16" ht="13.8" customHeight="1" s="10"/>
     <row r="17" ht="13.8" customHeight="1" s="10"/>
     <row r="1048472" ht="12.8" customHeight="1" s="10"/>
